--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.178730666666667</v>
+        <v>1.632344333333333</v>
       </c>
       <c r="H2">
-        <v>6.536192</v>
+        <v>4.897033</v>
       </c>
       <c r="I2">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="J2">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>1.474302741276444</v>
+        <v>4.366251754851667</v>
       </c>
       <c r="R2">
-        <v>13.268724671488</v>
+        <v>39.296265793665</v>
       </c>
       <c r="S2">
-        <v>0.0001960334915274296</v>
+        <v>0.0008266178857346983</v>
       </c>
       <c r="T2">
-        <v>0.0001960334915274297</v>
+        <v>0.0008266178857346983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.178730666666667</v>
+        <v>1.632344333333333</v>
       </c>
       <c r="H3">
-        <v>6.536192</v>
+        <v>4.897033</v>
       </c>
       <c r="I3">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="J3">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>99.56866614692979</v>
+        <v>74.5986415159619</v>
       </c>
       <c r="R3">
-        <v>896.1179953223681</v>
+        <v>671.3877736436571</v>
       </c>
       <c r="S3">
-        <v>0.01323933865483581</v>
+        <v>0.0141229994949524</v>
       </c>
       <c r="T3">
-        <v>0.01323933865483581</v>
+        <v>0.0141229994949524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.178730666666667</v>
+        <v>1.632344333333333</v>
       </c>
       <c r="H4">
-        <v>6.536192</v>
+        <v>4.897033</v>
       </c>
       <c r="I4">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="J4">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>58.07474132650665</v>
+        <v>18.70829786021855</v>
       </c>
       <c r="R4">
-        <v>522.6726719385599</v>
+        <v>168.374680741967</v>
       </c>
       <c r="S4">
-        <v>0.007722019360779782</v>
+        <v>0.003541851109644551</v>
       </c>
       <c r="T4">
-        <v>0.007722019360779784</v>
+        <v>0.003541851109644551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.178730666666667</v>
+        <v>1.632344333333333</v>
       </c>
       <c r="H5">
-        <v>6.536192</v>
+        <v>4.897033</v>
       </c>
       <c r="I5">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="J5">
-        <v>0.02119981581611726</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.3190591287751111</v>
+        <v>0.009196627974000001</v>
       </c>
       <c r="R5">
-        <v>2.871532158976</v>
+        <v>0.08276965176600001</v>
       </c>
       <c r="S5">
-        <v>4.242430897424266E-05</v>
+        <v>1.741103719754411E-06</v>
       </c>
       <c r="T5">
-        <v>4.242430897424267E-05</v>
+        <v>1.741103719754411E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.708562</v>
+        <v>1.632344333333333</v>
       </c>
       <c r="H6">
-        <v>248.125686</v>
+        <v>4.897033</v>
       </c>
       <c r="I6">
-        <v>0.8047834033100231</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="J6">
-        <v>0.8047834033100231</v>
+        <v>0.01849619981762122</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>55.96720216463933</v>
+        <v>0.01579456376933333</v>
       </c>
       <c r="R6">
-        <v>503.704819481754</v>
+        <v>0.142151073924</v>
       </c>
       <c r="S6">
-        <v>0.007441786374117937</v>
+        <v>2.99022356981606E-06</v>
       </c>
       <c r="T6">
-        <v>0.007441786374117938</v>
+        <v>2.99022356981606E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>248.125686</v>
       </c>
       <c r="I7">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="J7">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>3779.806895484699</v>
+        <v>221.23175643727</v>
       </c>
       <c r="R7">
-        <v>34018.2620593623</v>
+        <v>1991.08580793543</v>
       </c>
       <c r="S7">
-        <v>0.5025892730687</v>
+        <v>0.04188355070463925</v>
       </c>
       <c r="T7">
-        <v>0.5025892730687002</v>
+        <v>0.04188355070463924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>248.125686</v>
       </c>
       <c r="I8">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="J8">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>2204.62235976422</v>
+        <v>3779.806895484699</v>
       </c>
       <c r="R8">
-        <v>19841.60123787798</v>
+        <v>34018.2620593623</v>
       </c>
       <c r="S8">
-        <v>0.2931418402639893</v>
+        <v>0.7155922653702186</v>
       </c>
       <c r="T8">
-        <v>0.2931418402639894</v>
+        <v>0.7155922653702186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>248.125686</v>
       </c>
       <c r="I9">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="J9">
-        <v>0.8047834033100231</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>12.11206237544533</v>
+        <v>947.9228015124793</v>
       </c>
       <c r="R9">
-        <v>109.008561379008</v>
+        <v>8531.305213612313</v>
       </c>
       <c r="S9">
-        <v>0.001610503603215744</v>
+        <v>0.1794605501515745</v>
       </c>
       <c r="T9">
-        <v>0.001610503603215744</v>
+        <v>0.1794605501515745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9760386666666667</v>
+        <v>82.708562</v>
       </c>
       <c r="H10">
-        <v>2.928116</v>
+        <v>248.125686</v>
       </c>
       <c r="I10">
-        <v>0.009497199575567244</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="J10">
-        <v>0.009497199575567244</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>0.6604655196137779</v>
+        <v>0.465980038308</v>
       </c>
       <c r="R10">
-        <v>5.944189676524</v>
+        <v>4.193820344772</v>
       </c>
       <c r="S10">
-        <v>8.78200645081006E-05</v>
+        <v>8.821924517584731E-05</v>
       </c>
       <c r="T10">
-        <v>8.782006450810063E-05</v>
+        <v>8.821924517584729E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9760386666666667</v>
+        <v>82.708562</v>
       </c>
       <c r="H11">
-        <v>2.928116</v>
+        <v>248.125686</v>
       </c>
       <c r="I11">
-        <v>0.009497199575567244</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="J11">
-        <v>0.009497199575567244</v>
+        <v>0.9371760958401424</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>44.60526931330712</v>
+        <v>0.8002880459120001</v>
       </c>
       <c r="R11">
-        <v>401.447423819764</v>
+        <v>7.202592413208</v>
       </c>
       <c r="S11">
-        <v>0.005931025181733218</v>
+        <v>0.0001515103685341673</v>
       </c>
       <c r="T11">
-        <v>0.00593102518173322</v>
+        <v>0.0001515103685341673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.9760386666666667</v>
+        <v>0.06550599999999999</v>
       </c>
       <c r="H12">
-        <v>2.928116</v>
+        <v>0.196518</v>
       </c>
       <c r="I12">
-        <v>0.009497199575567244</v>
+        <v>0.0007422527468692342</v>
       </c>
       <c r="J12">
-        <v>0.009497199575567244</v>
+        <v>0.0007422527468692343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>26.01661323198666</v>
+        <v>0.17521774151</v>
       </c>
       <c r="R12">
-        <v>234.14951908788</v>
+        <v>1.57695967359</v>
       </c>
       <c r="S12">
-        <v>0.003459348875095629</v>
+        <v>3.317218684636421E-05</v>
       </c>
       <c r="T12">
-        <v>0.00345934887509563</v>
+        <v>3.317218684636421E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,87 +1216,87 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.9760386666666667</v>
+        <v>0.06550599999999999</v>
       </c>
       <c r="H13">
-        <v>2.928116</v>
+        <v>0.196518</v>
       </c>
       <c r="I13">
-        <v>0.009497199575567244</v>
+        <v>0.0007422527468692342</v>
       </c>
       <c r="J13">
-        <v>0.009497199575567244</v>
+        <v>0.0007422527468692343</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>0.1429337051164445</v>
+        <v>2.993644485024666</v>
       </c>
       <c r="R13">
-        <v>1.286403346048</v>
+        <v>26.942800365222</v>
       </c>
       <c r="S13">
-        <v>1.900545423029549E-05</v>
+        <v>0.0005667561592394936</v>
       </c>
       <c r="T13">
-        <v>1.900545423029549E-05</v>
+        <v>0.0005667561592394937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>14.27417333333334</v>
+        <v>0.06550599999999999</v>
       </c>
       <c r="H14">
-        <v>42.82252</v>
+        <v>0.196518</v>
       </c>
       <c r="I14">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692342</v>
       </c>
       <c r="J14">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>9.659042853142223</v>
+        <v>0.7507642441646666</v>
       </c>
       <c r="R14">
-        <v>86.93138567828001</v>
+        <v>6.756878197481999</v>
       </c>
       <c r="S14">
-        <v>0.00128433315783918</v>
+        <v>0.0001421345325557593</v>
       </c>
       <c r="T14">
-        <v>0.00128433315783918</v>
+        <v>0.0001421345325557593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>14.27417333333334</v>
+        <v>0.06550599999999999</v>
       </c>
       <c r="H15">
-        <v>42.82252</v>
+        <v>0.196518</v>
       </c>
       <c r="I15">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692342</v>
       </c>
       <c r="J15">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692343</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>652.334141569009</v>
+        <v>0.000369060804</v>
       </c>
       <c r="R15">
-        <v>5871.007274121081</v>
+        <v>0.003321547236</v>
       </c>
       <c r="S15">
-        <v>0.08673886023138237</v>
+        <v>6.987051563644709E-08</v>
       </c>
       <c r="T15">
-        <v>0.08673886023138239</v>
+        <v>6.987051563644709E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>14.27417333333334</v>
+        <v>0.06550599999999999</v>
       </c>
       <c r="H16">
-        <v>42.82252</v>
+        <v>0.196518</v>
       </c>
       <c r="I16">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692342</v>
       </c>
       <c r="J16">
-        <v>0.1388927278730487</v>
+        <v>0.0007422527468692343</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>380.4825151937333</v>
+        <v>0.000633836056</v>
       </c>
       <c r="R16">
-        <v>3424.3426367436</v>
+        <v>0.005704524504</v>
       </c>
       <c r="S16">
-        <v>0.05059158735199019</v>
+        <v>1.199977119805222E-07</v>
       </c>
       <c r="T16">
-        <v>0.0505915873519902</v>
+        <v>1.199977119805222E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.27417333333334</v>
+        <v>2.507311666666667</v>
       </c>
       <c r="H17">
-        <v>42.82252</v>
+        <v>7.521935000000001</v>
       </c>
       <c r="I17">
-        <v>0.1388927278730487</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="J17">
-        <v>0.1388927278730487</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>2.090348007395556</v>
+        <v>6.706645001908333</v>
       </c>
       <c r="R17">
-        <v>18.81313206656</v>
+        <v>60.35980501717501</v>
       </c>
       <c r="S17">
-        <v>0.0002779471318369604</v>
+        <v>0.00126970065472988</v>
       </c>
       <c r="T17">
-        <v>0.0002779471318369605</v>
+        <v>0.00126970065472988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7135190000000001</v>
+        <v>2.507311666666667</v>
       </c>
       <c r="H18">
-        <v>2.140557</v>
+        <v>7.521935000000001</v>
       </c>
       <c r="I18">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="J18">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>0.4828237990803334</v>
+        <v>114.5849195975128</v>
       </c>
       <c r="R18">
-        <v>4.345414191723</v>
+        <v>1031.264276377615</v>
       </c>
       <c r="S18">
-        <v>6.419959244212536E-05</v>
+        <v>0.02169319345123155</v>
       </c>
       <c r="T18">
-        <v>6.419959244212537E-05</v>
+        <v>0.02169319345123155</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7135190000000001</v>
+        <v>2.507311666666667</v>
       </c>
       <c r="H19">
-        <v>2.140557</v>
+        <v>7.521935000000001</v>
       </c>
       <c r="I19">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="J19">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>32.60803925305034</v>
+        <v>28.73629817589611</v>
       </c>
       <c r="R19">
-        <v>293.4723532774531</v>
+        <v>258.626683583065</v>
       </c>
       <c r="S19">
-        <v>0.004335790477540956</v>
+        <v>0.005440350070425131</v>
       </c>
       <c r="T19">
-        <v>0.004335790477540957</v>
+        <v>0.00544035007042513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7135190000000001</v>
+        <v>2.507311666666667</v>
       </c>
       <c r="H20">
-        <v>2.140557</v>
+        <v>7.521935000000001</v>
       </c>
       <c r="I20">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="J20">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>19.01907013589</v>
+        <v>0.01412619393</v>
       </c>
       <c r="R20">
-        <v>171.17163122301</v>
+        <v>0.12713574537</v>
       </c>
       <c r="S20">
-        <v>0.002528907136885313</v>
+        <v>2.674368134388904E-06</v>
       </c>
       <c r="T20">
-        <v>0.002528907136885314</v>
+        <v>2.674368134388904E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7135190000000001</v>
+        <v>2.507311666666667</v>
       </c>
       <c r="H21">
-        <v>2.140557</v>
+        <v>7.521935000000001</v>
       </c>
       <c r="I21">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="J21">
-        <v>0.006942790870265214</v>
+        <v>0.02841051158429169</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>0.1044896250773334</v>
+        <v>0.02426074768666667</v>
       </c>
       <c r="R21">
-        <v>0.9404066256960001</v>
+        <v>0.21834672918</v>
       </c>
       <c r="S21">
-        <v>1.389366339681851E-05</v>
+        <v>4.593039770739623E-06</v>
       </c>
       <c r="T21">
-        <v>1.389366339681851E-05</v>
+        <v>4.593039770739623E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.920183666666667</v>
+        <v>1.225898</v>
       </c>
       <c r="H22">
-        <v>5.760551</v>
+        <v>3.677694</v>
       </c>
       <c r="I22">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="J22">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>1.299349243498778</v>
+        <v>3.27907487683</v>
       </c>
       <c r="R22">
-        <v>11.694143191489</v>
+        <v>29.51167389147</v>
       </c>
       <c r="S22">
-        <v>0.0001727704641558611</v>
+        <v>0.0006207937824105302</v>
       </c>
       <c r="T22">
-        <v>0.0001727704641558611</v>
+        <v>0.00062079378241053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.920183666666667</v>
+        <v>1.225898</v>
       </c>
       <c r="H23">
-        <v>5.760551</v>
+        <v>3.677694</v>
       </c>
       <c r="I23">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="J23">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>87.75298818354212</v>
+        <v>56.02391821974734</v>
       </c>
       <c r="R23">
-        <v>789.7768936518789</v>
+        <v>504.215263977726</v>
       </c>
       <c r="S23">
-        <v>0.01166824437339862</v>
+        <v>0.0106064366943391</v>
       </c>
       <c r="T23">
-        <v>0.01166824437339862</v>
+        <v>0.0106064366943391</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.920183666666667</v>
+        <v>1.225898</v>
       </c>
       <c r="H24">
-        <v>5.760551</v>
+        <v>3.677694</v>
       </c>
       <c r="I24">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="J24">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>51.18309089193666</v>
+        <v>14.05001656936733</v>
       </c>
       <c r="R24">
-        <v>460.6478180274299</v>
+        <v>126.450149124306</v>
       </c>
       <c r="S24">
-        <v>0.006805657843398623</v>
+        <v>0.002659946252114925</v>
       </c>
       <c r="T24">
-        <v>0.006805657843398624</v>
+        <v>0.002659946252114925</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.920183666666667</v>
+        <v>1.225898</v>
       </c>
       <c r="H25">
-        <v>5.760551</v>
+        <v>3.677694</v>
       </c>
       <c r="I25">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="J25">
-        <v>0.01868406255497851</v>
+        <v>0.01389072997712424</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>0.2811968166364444</v>
+        <v>0.006906709332</v>
       </c>
       <c r="R25">
-        <v>2.530771349728</v>
+        <v>0.062160383988</v>
       </c>
       <c r="S25">
-        <v>3.738987402540845E-05</v>
+        <v>1.307576792624938E-06</v>
       </c>
       <c r="T25">
-        <v>3.738987402540846E-05</v>
+        <v>1.307576792624938E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.225898</v>
+      </c>
+      <c r="H26">
+        <v>3.677694</v>
+      </c>
+      <c r="I26">
+        <v>0.01389072997712424</v>
+      </c>
+      <c r="J26">
+        <v>0.01389072997712424</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.011861789048</v>
+      </c>
+      <c r="R26">
+        <v>0.106756101432</v>
+      </c>
+      <c r="S26">
+        <v>2.245671467064058E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.245671467064058E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1133353333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.340006</v>
+      </c>
+      <c r="I27">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="J27">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>0.3031533163366667</v>
+      </c>
+      <c r="R27">
+        <v>2.72837984703</v>
+      </c>
+      <c r="S27">
+        <v>5.739292360437674E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.739292360437674E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1133353333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.340006</v>
+      </c>
+      <c r="I28">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="J28">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>5.179459829508223</v>
+      </c>
+      <c r="R28">
+        <v>46.61513846557401</v>
+      </c>
+      <c r="S28">
+        <v>0.0009805742714580003</v>
+      </c>
+      <c r="T28">
+        <v>0.0009805742714580003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1133353333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.340006</v>
+      </c>
+      <c r="I29">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="J29">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>1.298936217554889</v>
+      </c>
+      <c r="R29">
+        <v>11.690425957994</v>
+      </c>
+      <c r="S29">
+        <v>0.0002459143380054423</v>
+      </c>
+      <c r="T29">
+        <v>0.0002459143380054423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1133353333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.340006</v>
+      </c>
+      <c r="I30">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="J30">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.000638531268</v>
+      </c>
+      <c r="R30">
+        <v>0.005746781412</v>
+      </c>
+      <c r="S30">
+        <v>1.208866085523251E-07</v>
+      </c>
+      <c r="T30">
+        <v>1.208866085523251E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1133353333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.340006</v>
+      </c>
+      <c r="I31">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="J31">
+        <v>0.001284210033951195</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.001096632685333333</v>
+      </c>
+      <c r="R31">
+        <v>0.009869694168000001</v>
+      </c>
+      <c r="S31">
+        <v>2.076142748229141E-07</v>
+      </c>
+      <c r="T31">
+        <v>2.076142748229141E-07</v>
       </c>
     </row>
   </sheetData>
